--- a/source_data_files/Figure_3_SourceData.xlsx
+++ b/source_data_files/Figure_3_SourceData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,583 +437,593 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Plate Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Clone type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cell Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percent Replicating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Percent Matching</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Modality Match</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Treatment timepoint</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Plating density</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>48.00668896321071</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BR00117105</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compounds - Compounds</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24-48</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>62.22222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.6046511627907</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7.545751633986928</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BR00117106</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compounds - ORF</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24-48</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>67.77777777777779</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.27906976744186</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>9.169934640522875</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BR00117107</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compounds - ORF</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24-96</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.6046511627907</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7.879084967320261</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BR00117108</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compounds - ORF</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>48-48</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>58.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.27906976744186</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>9.490196078431373</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BR00117097</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compounds - ORF</t>
+          <t>Polyclonal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>48-96</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.93023255813954</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6.403780068728522</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BR00117098</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compounds - CRISPR</t>
+          <t>Polyclonal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24-96</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>64.44444444444444</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.6046511627907</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7.243986254295532</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BR00117100</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compounds - CRISPR</t>
+          <t>Monoclonal 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24-144</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>64.44444444444444</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.93023255813954</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>10.51890034364261</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BR00117099</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compounds - CRISPR</t>
+          <t>Monoclonal 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>48-96</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>57.77777777777777</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.95348837209302</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9.304123711340209</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BR00117104</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compounds - CRISPR</t>
+          <t>Monoclonal 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>48-144</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>68.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.27906976744186</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>40</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BR00117101</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORF - ORF</t>
+          <t>Monoclonal 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>48-96</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>68.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.27906976744186</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>7.550819672131148</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BR00117110</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORF - CRISPR</t>
+          <t>Monoclonal 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>48-96</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.95348837209302</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>8.872131147540983</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BR00117109</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORF - CRISPR</t>
+          <t>Monoclonal 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>48-144</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>62.22222222222222</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.6046511627907</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>9.203278688524589</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BR00117093</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORF - CRISPR</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96-96</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>65.55555555555556</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.58139534883721</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>10.18688524590164</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BR00117094</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORF - CRISPR</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>96-144</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>64.04494382022472</v>
+      </c>
+      <c r="F15" t="n">
+        <v>23.80952380952381</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>27.41176470588236</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BR00117095</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CRISPR - CRISPR</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>96-144</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A549 - A549</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>65.55555555555556</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.93023255813954</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>45.83277591973244</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BR00117096</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Compounds - Compounds</t>
+          <t>Parental</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24-48</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A549 - A549 80%</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>64.44444444444444</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.6046511627907</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>47.83612040133779</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BR00117088</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Compounds - Compounds</t>
+          <t>Polyclonal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>48-48</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A549 - A549 80%</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>59.55056179775281</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23.80952380952381</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>9.852941176470589</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BR00117089</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Compounds - ORF</t>
+          <t>Polyclonal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>48-48</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A549 - A549 80%</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>61.79775280898876</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>10.14705882352941</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BR00117091</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compounds - ORF</t>
+          <t>Monoclonal 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>48-96</t>
+          <t>Lower</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A549 - A549 80%</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.6046511627907</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>8.115120274914089</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BR00117092</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compounds - CRISPR</t>
+          <t>Monoclonal 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>48-96</t>
+          <t>Higher</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A549 - A549 80%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>7.769759450171821</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Compounds - CRISPR</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>48-144</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>A549 - A549 80%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>44.49163879598662</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Compounds - Compounds</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>24-48</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>A549 - A549 120%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>49.01003344481605</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Compounds - Compounds</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>48-48</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>A549 - A549 120%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>6.918300653594772</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Compounds - ORF</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>48-48</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>A549 - A549 120%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>10.47385620915033</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Compounds - ORF</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>48-96</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>A549 - A549 120%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>8.288659793814432</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Compounds - CRISPR</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>48-96</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>A549 - A549 120%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>7.243986254295532</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Compounds - CRISPR</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>48-144</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>A549 - A549 120%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>48.50501672240803</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Compounds - Compounds</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>48-48</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>A549 80% - A549 120%</t>
-        </is>
+          <t>U2OS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>61.11111111111112</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.27906976744186</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,6 +1076,11 @@
           <t>Cell Type</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Plates</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1096,6 +1111,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117015', 'BR00117016', 'BR00117017', 'BR00117019']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1126,6 +1146,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117020', 'BR00117021']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1156,6 +1181,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00118050', 'BR00117006']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1186,6 +1216,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00117020', 'BR00117021']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1216,6 +1251,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00118050', 'BR00117006']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1246,6 +1286,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1276,6 +1321,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['BR00116991', 'BR00116992', 'BR00116993', 'BR00116994', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1306,6 +1356,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1336,6 +1391,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['BR00117015', 'BR00117016', 'BR00117017', 'BR00117019', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1366,6 +1426,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00118050', 'BR00117006']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1396,6 +1461,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1426,6 +1496,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['BR00117020', 'BR00117021', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1456,6 +1531,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00118041', 'BR00118042', 'BR00118043', 'BR00118044']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1486,6 +1566,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['BR00118050', 'BR00117006', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1516,6 +1601,11 @@
           <t>A549</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['BR00118041', 'BR00118042', 'BR00118043', 'BR00118044', 'BR00117000', 'BR00117003', 'BR00117004', 'BR00117005']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1546,6 +1636,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['BR00116995', 'BR00117024', 'BR00117025', 'BR00117026', 'BR00117010', 'BR00117011', 'BR00117012', 'BR00117013']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1576,6 +1671,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['BR00116995', 'BR00117024', 'BR00117025', 'BR00117026', 'BR00117022', 'BR00117023']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1606,6 +1706,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['BR00116995', 'BR00117024', 'BR00117025', 'BR00117026', 'BR00118039', 'BR00118040']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1636,6 +1741,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['BR00117010', 'BR00117011', 'BR00117012', 'BR00117013', 'BR00117022', 'BR00117023']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1666,6 +1776,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['BR00117010', 'BR00117011', 'BR00117012', 'BR00117013', 'BR00118039', 'BR00118040']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1696,6 +1811,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['BR00116995', 'BR00117024', 'BR00117025', 'BR00117026', 'BR00118045', 'BR00118046', 'BR00118047', 'BR00118048']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1726,6 +1846,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['BR00116995', 'BR00117024', 'BR00117025', 'BR00117026', 'BR00116996', 'BR00116997', 'BR00116998', 'BR00116999']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1756,6 +1881,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['BR00117010', 'BR00117011', 'BR00117012', 'BR00117013', 'BR00118045', 'BR00118046', 'BR00118047', 'BR00118048']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1786,6 +1916,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['BR00117010', 'BR00117011', 'BR00117012', 'BR00117013', 'BR00116996', 'BR00116997', 'BR00116998', 'BR00116999']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1816,6 +1951,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['BR00117022', 'BR00117023', 'BR00118039', 'BR00118040']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1846,6 +1986,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['BR00117022', 'BR00117023', 'BR00118045', 'BR00118046', 'BR00118047', 'BR00118048']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1876,6 +2021,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['BR00117022', 'BR00117023', 'BR00116996', 'BR00116997', 'BR00116998', 'BR00116999']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1906,6 +2056,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['BR00118039', 'BR00118040', 'BR00118045', 'BR00118046', 'BR00118047', 'BR00118048']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1936,6 +2091,11 @@
           <t>U2OS</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['BR00118039', 'BR00118040', 'BR00116996', 'BR00116997', 'BR00116998', 'BR00116999']</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1964,6 +2124,11 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>U2OS</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['BR00118045', 'BR00118046', 'BR00118047', 'BR00118048', 'BR00116996', 'BR00116997', 'BR00116998', 'BR00116999']</t>
         </is>
       </c>
     </row>

--- a/source_data_files/Figure_3_SourceData.xlsx
+++ b/source_data_files/Figure_3_SourceData.xlsx
@@ -1084,7 +1084,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48.17391304347827</v>
+        <v>49.49832775919732</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.872549019607843</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.53921568627451</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.879084967320261</v>
+        <v>11.43790849673203</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.813725490196081</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.575601374570447</v>
+        <v>11.16838487972509</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.412371134020619</v>
+        <v>9.793814432989691</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.51890034364261</v>
+        <v>14.26116838487972</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.302405498281788</v>
+        <v>11.68384879725086</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.222950819672132</v>
+        <v>8.196721311475411</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.872131147540983</v>
+        <v>10.81967213114754</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.203278688524589</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.547540983606556</v>
+        <v>10.81967213114754</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.90756302521008</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41.64882943143812</v>
+        <v>42.64214046822742</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.1437908496732</v>
+        <v>14.37908496732026</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.18954248366013</v>
+        <v>13.0718954248366</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.16666666666667</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.84967320261438</v>
+        <v>14.37908496732026</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.280068728522336</v>
+        <v>11.51202749140894</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.53264604810997</v>
+        <v>15.63573883161512</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.33676975945017</v>
+        <v>13.05841924398625</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.609965635738831</v>
+        <v>12.54295532646048</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.904918032786886</v>
+        <v>11.47540983606558</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.960655737704919</v>
+        <v>9.18032786885246</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.872131147540983</v>
+        <v>13.44262295081967</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.606557377049181</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38.16134453781513</v>
+        <v>39.15966386554622</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
